--- a/doc/beta_emails.xlsx
+++ b/doc/beta_emails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>laudel7@yahoo.co.uk</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>lcc@msn.com</t>
+  </si>
+  <si>
+    <t>evilface74@aol.com</t>
+  </si>
+  <si>
+    <t>paullazarou@hotmail.com</t>
+  </si>
+  <si>
+    <t>mikem01832@comcast.net</t>
   </si>
 </sst>
 </file>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +541,21 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
